--- a/File/kycPage.xlsx
+++ b/File/kycPage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t xml:space="preserve">testID</t>
   </si>
@@ -61,28 +61,82 @@
     <t xml:space="preserve">Idproof</t>
   </si>
   <si>
+    <t xml:space="preserve">IdproofNo</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC_01</t>
   </si>
   <si>
+    <t xml:space="preserve">KYC- Validating the Positive Journey of customer KYC with prefix MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999912356123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikhil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaiswal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02</t>
+  </si>
+  <si>
     <t xml:space="preserve">KYC- Validating the Positive Journey of customer KYC.</t>
   </si>
   <si>
-    <t xml:space="preserve">223456786578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikhil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaiswal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aadhaar Card</t>
+    <t xml:space="preserve">Mrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYC- Validating the Positive Journey of customer KYC with prefix Ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYC- Validating the Positive Journey of online vwrification with ID proof as  Government Issued ID Card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Issued ID Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYC- Validating the Positive Journey of online vwrification with ID proof as  Voter ID Card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voter ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYC- Validating the Positive Journey of online vwrification with ID proof as Driving License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345678765436QWER</t>
   </si>
 </sst>
 </file>
@@ -184,13 +238,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.62"/>
@@ -237,25 +291,28 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1999</v>
@@ -267,16 +324,239 @@
         <v>3</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>110006</v>
+        <v>110009</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>110009</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>110009</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>110009</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>110009</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>110009</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
